--- a/target/test-classes/AdactinTestData.xlsx
+++ b/target/test-classes/AdactinTestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pradeep\eclipse-workspace\AdactinHotel\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84BF163A-C281-4D1A-BE4A-F82F6B715194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D68DC5-C88A-47D8-8E2F-6601A6F7E4F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{0B6140EB-BC88-4CCB-8520-312D59198F3E}"/>
+    <workbookView minimized="1" xWindow="14055" yWindow="4140" windowWidth="15435" windowHeight="6000" activeTab="2" xr2:uid="{0B6140EB-BC88-4CCB-8520-312D59198F3E}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginData" sheetId="1" r:id="rId1"/>
@@ -819,7 +819,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/target/test-classes/AdactinTestData.xlsx
+++ b/target/test-classes/AdactinTestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pradeep\eclipse-workspace\AdactinHotel\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D68DC5-C88A-47D8-8E2F-6601A6F7E4F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC1BB43-5F29-4DBE-8C44-46801B139FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="14055" yWindow="4140" windowWidth="15435" windowHeight="6000" activeTab="2" xr2:uid="{0B6140EB-BC88-4CCB-8520-312D59198F3E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0B6140EB-BC88-4CCB-8520-312D59198F3E}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginData" sheetId="1" r:id="rId1"/>
@@ -707,7 +707,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC6C63CA-AF63-44C5-ADDC-FA92E719F158}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -738,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>13</v>
@@ -818,7 +818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E588DB89-5DD4-4CAE-A2B5-FFF17FAC3A65}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
